--- a/第四题统计表.xlsx
+++ b/第四题统计表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>CCF201512-4 送货（100分）</t>
   </si>
@@ -189,6 +189,34 @@
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最短路径 Dijkstra/BF/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS 最短路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://blog.csdn.net/more_ugly_less_bug/article/details/75676355</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小生成树+并查集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最短路径 最小花费</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +622,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -607,6 +635,9 @@
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -623,16 +654,28 @@
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
@@ -668,6 +711,12 @@
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">

--- a/第四题统计表.xlsx
+++ b/第四题统计表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>CCF201512-4 送货（100分）</t>
   </si>
@@ -217,6 +217,22 @@
   </si>
   <si>
     <t>最短路径 最小花费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧拉回路 #</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tarjan 强连通分量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfs/dfs 树的直径（树上的最长路）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +638,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -692,15 +708,27 @@
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">

--- a/第四题统计表.xlsx
+++ b/第四题统计表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>CCF201512-4 送货（100分）</t>
   </si>
@@ -233,6 +233,14 @@
   </si>
   <si>
     <t>bfs/dfs 树的直径（树上的最长路）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -638,7 +646,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -735,6 +743,12 @@
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
@@ -751,10 +765,16 @@
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
